--- a/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="585">
   <si>
     <t>Package Name</t>
   </si>
@@ -1842,7 +1842,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1991,6 +1991,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2151,7 +2158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2641,17 +2648,62 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8726,10 +8778,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8994,21 +9046,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -9514,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="29" customFormat="1" ht="61.15" customHeight="1">
+    <row r="12" spans="1:16" s="29" customFormat="1" ht="61.2" customHeight="1">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -9651,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="29" customFormat="1" ht="61.15" customHeight="1">
+    <row r="15" spans="1:16" s="29" customFormat="1" ht="61.2" customHeight="1">
       <c r="A15" s="91">
         <v>14</v>
       </c>
@@ -10070,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="29" customFormat="1" ht="55.15" customHeight="1">
+    <row r="24" spans="1:16" s="29" customFormat="1" ht="55.2" customHeight="1">
       <c r="A24" s="91">
         <v>21</v>
       </c>
@@ -10845,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1">
       <c r="A41" s="91">
         <v>40</v>
       </c>
@@ -10937,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1">
       <c r="A43" s="91">
         <v>42</v>
       </c>
@@ -10982,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1">
       <c r="A44" s="91">
         <v>43</v>
       </c>
@@ -11029,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1">
       <c r="A45" s="91">
         <v>44</v>
       </c>
@@ -11074,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1">
       <c r="A46" s="91">
         <v>45</v>
       </c>
@@ -11119,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1">
       <c r="A47" s="91">
         <v>46</v>
       </c>
@@ -11164,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1">
       <c r="A48" s="108">
         <v>47</v>
       </c>
@@ -11209,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="43"/>
@@ -11241,7 +11293,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="46"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="74"/>
       <c r="B50" s="74"/>
       <c r="C50" s="115"/>
@@ -11258,7 +11310,7 @@
       <c r="N50" s="74"/>
       <c r="O50" s="117"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="74"/>
       <c r="B51" s="74"/>
       <c r="C51" s="115"/>
@@ -11275,7 +11327,7 @@
       <c r="N51" s="74"/>
       <c r="O51" s="117"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="74"/>
       <c r="B52" s="74"/>
       <c r="C52" s="115"/>
@@ -11292,8 +11344,8 @@
       <c r="N52" s="74"/>
       <c r="O52" s="117"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1">
       <c r="E54" s="16"/>
       <c r="F54" s="118" t="s">
         <v>331</v>
@@ -11315,7 +11367,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1">
       <c r="E55" s="73" t="s">
         <v>117</v>
       </c>
@@ -11345,7 +11397,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1">
       <c r="E56" s="73" t="s">
         <v>128</v>
       </c>
@@ -11375,7 +11427,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1">
       <c r="E57" s="73" t="s">
         <v>179</v>
       </c>
@@ -11405,7 +11457,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1">
       <c r="E58" s="73" t="s">
         <v>139</v>
       </c>
@@ -11435,7 +11487,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1">
       <c r="E59" s="73" t="s">
         <v>150</v>
       </c>
@@ -11465,7 +11517,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1">
       <c r="E60" s="73" t="s">
         <v>169</v>
       </c>
@@ -11495,7 +11547,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1">
       <c r="F61" s="76">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11522,7 +11574,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1">
       <c r="E62" s="75"/>
       <c r="F62" s="74"/>
       <c r="G62" s="74"/>
@@ -11531,8 +11583,8 @@
       <c r="J62" s="74"/>
       <c r="K62" s="74"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11557,22 +11609,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="52" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="52" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13238,7 +13290,7 @@
       <c r="P40" s="66"/>
       <c r="Q40" s="29"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
       <c r="A41" s="50">
         <v>45</v>
       </c>
@@ -13280,7 +13332,7 @@
       <c r="P41" s="63"/>
       <c r="Q41" s="26"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
       <c r="A42" s="50">
         <v>30</v>
       </c>
@@ -13324,7 +13376,7 @@
       </c>
       <c r="Q42" s="26"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
       <c r="A43" s="50">
         <v>33</v>
       </c>
@@ -13368,7 +13420,7 @@
       </c>
       <c r="Q43" s="26"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
       <c r="A44" s="50">
         <v>36</v>
       </c>
@@ -13412,7 +13464,7 @@
       </c>
       <c r="Q44" s="26"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1">
       <c r="A45" s="50">
         <v>39</v>
       </c>
@@ -13456,7 +13508,7 @@
       </c>
       <c r="Q45" s="26"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1">
       <c r="A46" s="50">
         <v>43</v>
       </c>
@@ -13500,7 +13552,7 @@
       </c>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1">
       <c r="A47" s="50">
         <v>46</v>
       </c>
@@ -13542,7 +13594,7 @@
       <c r="P47" s="65"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
       <c r="A48" s="50">
         <v>47</v>
       </c>
@@ -13584,7 +13636,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="26"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
       <c r="A49" s="180" t="s">
         <v>113</v>
       </c>
@@ -13619,7 +13671,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="68"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="73"/>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
@@ -13637,7 +13689,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="68"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="73"/>
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
@@ -13929,12 +13981,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14511,13 +14563,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14713,21 +14765,21 @@
       <selection activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>314</v>
@@ -14790,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.15" customHeight="1">
+    <row r="4" spans="1:10" ht="13.2" customHeight="1">
       <c r="A4" s="150" t="s">
         <v>550</v>
       </c>
@@ -15006,14 +15058,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15329,24 +15381,24 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15408,8 +15460,12 @@
       <c r="E2" s="9">
         <v>151.38499999999999</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="175"/>
+      <c r="F2" s="181">
+        <v>1</v>
+      </c>
+      <c r="G2" s="181">
+        <v>1</v>
+      </c>
       <c r="H2" s="8" t="s">
         <v>117</v>
       </c>
@@ -15426,7 +15482,9 @@
       <c r="M2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="42"/>
+      <c r="N2" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
@@ -15445,8 +15503,12 @@
       <c r="E3" s="9">
         <v>151.38499999999999</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="175"/>
+      <c r="F3" s="181">
+        <v>1</v>
+      </c>
+      <c r="G3" s="181">
+        <v>1</v>
+      </c>
       <c r="H3" s="8" t="s">
         <v>117</v>
       </c>
@@ -15463,7 +15525,9 @@
       <c r="M3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15482,8 +15546,12 @@
       <c r="E4" s="9">
         <v>732.6</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="175"/>
+      <c r="F4" s="181">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="181">
+        <v>1</v>
+      </c>
       <c r="H4" s="8" t="s">
         <v>117</v>
       </c>
@@ -15500,7 +15568,9 @@
       <c r="M4" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15519,8 +15589,12 @@
       <c r="E5" s="9">
         <v>99.9</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="175"/>
+      <c r="F5" s="181">
+        <v>1</v>
+      </c>
+      <c r="G5" s="181">
+        <v>1</v>
+      </c>
       <c r="H5" s="8" t="s">
         <v>117</v>
       </c>
@@ -15537,7 +15611,9 @@
       <c r="M5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="42"/>
+      <c r="N5" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15556,8 +15632,12 @@
       <c r="E6" s="9">
         <v>208</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="181"/>
+      <c r="F6" s="181">
+        <v>0</v>
+      </c>
+      <c r="G6" s="182">
+        <v>1</v>
+      </c>
       <c r="H6" s="8" t="s">
         <v>117</v>
       </c>
@@ -15574,7 +15654,9 @@
       <c r="M6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15593,8 +15675,12 @@
       <c r="E7" s="9">
         <v>178.13</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="182"/>
+      <c r="F7" s="181">
+        <v>1</v>
+      </c>
+      <c r="G7" s="183">
+        <v>1</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>117</v>
       </c>
@@ -15611,10 +15697,12 @@
       <c r="M7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O7" s="42"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>126</v>
       </c>
@@ -15630,8 +15718,12 @@
       <c r="E8" s="14">
         <v>274.56</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="183"/>
+      <c r="F8" s="181">
+        <v>1</v>
+      </c>
+      <c r="G8" s="181">
+        <v>1</v>
+      </c>
       <c r="H8" s="8" t="s">
         <v>128</v>
       </c>
@@ -15648,7 +15740,9 @@
       <c r="M8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15667,8 +15761,12 @@
       <c r="E9" s="14">
         <v>225.46</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="183"/>
+      <c r="F9" s="181">
+        <v>1</v>
+      </c>
+      <c r="G9" s="181">
+        <v>1</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>128</v>
       </c>
@@ -15685,7 +15783,9 @@
       <c r="M9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15704,8 +15804,12 @@
       <c r="E10" s="14">
         <v>318.42</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="183"/>
+      <c r="F10" s="181">
+        <v>1</v>
+      </c>
+      <c r="G10" s="181">
+        <v>1</v>
+      </c>
       <c r="H10" s="8" t="s">
         <v>128</v>
       </c>
@@ -15722,7 +15826,9 @@
       <c r="M10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15741,8 +15847,12 @@
       <c r="E11" s="14">
         <v>149.54</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="184"/>
+      <c r="F11" s="181">
+        <v>1</v>
+      </c>
+      <c r="G11" s="181">
+        <v>1</v>
+      </c>
       <c r="H11" s="8" t="s">
         <v>128</v>
       </c>
@@ -15759,7 +15869,9 @@
       <c r="M11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O11" s="42"/>
     </row>
     <row r="12" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15778,8 +15890,12 @@
       <c r="E12" s="9">
         <v>132.86610229999999</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="184"/>
+      <c r="F12" s="185">
+        <v>1</v>
+      </c>
+      <c r="G12" s="185">
+        <v>1</v>
+      </c>
       <c r="H12" s="8" t="s">
         <v>128</v>
       </c>
@@ -15796,7 +15912,9 @@
       <c r="M12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="42"/>
+      <c r="N12" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O12" s="42"/>
     </row>
     <row r="13" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15815,8 +15933,12 @@
       <c r="E13" s="9">
         <v>53.047480929999999</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="184"/>
+      <c r="F13" s="185">
+        <v>1</v>
+      </c>
+      <c r="G13" s="185">
+        <v>1</v>
+      </c>
       <c r="H13" s="8" t="s">
         <v>128</v>
       </c>
@@ -15833,7 +15955,9 @@
       <c r="M13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="42"/>
+      <c r="N13" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15852,8 +15976,12 @@
       <c r="E14" s="9">
         <v>29.974988280000002</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="183"/>
+      <c r="F14" s="185">
+        <v>0</v>
+      </c>
+      <c r="G14" s="185">
+        <v>0</v>
+      </c>
       <c r="H14" s="8" t="s">
         <v>128</v>
       </c>
@@ -15870,7 +15998,9 @@
       <c r="M14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="42"/>
+      <c r="N14" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15889,8 +16019,12 @@
       <c r="E15" s="9">
         <v>168.38</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="184"/>
+      <c r="F15" s="181">
+        <v>1</v>
+      </c>
+      <c r="G15" s="181">
+        <v>1</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>128</v>
       </c>
@@ -15907,7 +16041,9 @@
       <c r="M15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="42"/>
+      <c r="N15" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15926,8 +16062,12 @@
       <c r="E16" s="9">
         <v>638.85</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="175"/>
+      <c r="F16" s="181">
+        <v>1</v>
+      </c>
+      <c r="G16" s="181">
+        <v>1</v>
+      </c>
       <c r="H16" s="8" t="s">
         <v>179</v>
       </c>
@@ -15944,7 +16084,9 @@
       <c r="M16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15961,8 +16103,12 @@
       <c r="E17" s="9">
         <v>507.95</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="175"/>
+      <c r="F17" s="181">
+        <v>1</v>
+      </c>
+      <c r="G17" s="181">
+        <v>1</v>
+      </c>
       <c r="H17" s="8" t="s">
         <v>179</v>
       </c>
@@ -15979,7 +16125,9 @@
       <c r="M17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="42"/>
+      <c r="N17" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O17" s="42"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -15998,8 +16146,8 @@
       <c r="E18" s="9">
         <v>141.3235316</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="184"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="8" t="s">
         <v>139</v>
       </c>
@@ -16016,7 +16164,9 @@
       <c r="M18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="42"/>
+      <c r="N18" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O18" s="42"/>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16035,8 +16185,8 @@
       <c r="E19" s="9">
         <v>154.0745714</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="184"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
       <c r="H19" s="8" t="s">
         <v>139</v>
       </c>
@@ -16053,7 +16203,9 @@
       <c r="M19" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="42"/>
+      <c r="N19" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16072,8 +16224,8 @@
       <c r="E20" s="9">
         <v>151.0703345</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="184"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
       <c r="H20" s="8" t="s">
         <v>139</v>
       </c>
@@ -16090,7 +16242,9 @@
       <c r="M20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N20" s="42"/>
+      <c r="N20" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O20" s="42"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16109,8 +16263,8 @@
       <c r="E21" s="9">
         <v>143.81093200000001</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="184"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
       <c r="H21" s="8" t="s">
         <v>139</v>
       </c>
@@ -16127,7 +16281,9 @@
       <c r="M21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16146,8 +16302,8 @@
       <c r="E22" s="9">
         <v>155.69327179999999</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="184"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="8" t="s">
         <v>139</v>
       </c>
@@ -16164,7 +16320,9 @@
       <c r="M22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O22" s="42"/>
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16183,8 +16341,8 @@
       <c r="E23" s="9">
         <v>216.75147200000001</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="184"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
       <c r="H23" s="8" t="s">
         <v>139</v>
       </c>
@@ -16201,7 +16359,9 @@
       <c r="M23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N23" s="42"/>
+      <c r="N23" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O23" s="42"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16220,8 +16380,8 @@
       <c r="E24" s="9">
         <v>353.8204149</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="184"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
       <c r="H24" s="8" t="s">
         <v>139</v>
       </c>
@@ -16238,7 +16398,9 @@
       <c r="M24" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="186" t="s">
+        <v>100</v>
+      </c>
       <c r="O24" s="42"/>
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16257,8 +16419,8 @@
       <c r="E25" s="9">
         <v>415.5317</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="184"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="8" t="s">
         <v>150</v>
       </c>
@@ -16275,7 +16437,9 @@
       <c r="M25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O25" s="42"/>
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16294,8 +16458,8 @@
       <c r="E26" s="9">
         <v>373.34588300000001</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="184"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="8" t="s">
         <v>150</v>
       </c>
@@ -16312,7 +16476,9 @@
       <c r="M26" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O26" s="42"/>
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16331,8 +16497,8 @@
       <c r="E27" s="9">
         <v>143.16040000000001</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="184"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="8" t="s">
         <v>150</v>
       </c>
@@ -16349,7 +16515,9 @@
       <c r="M27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N27" s="42"/>
+      <c r="N27" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O27" s="42"/>
     </row>
     <row r="28" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16368,8 +16536,8 @@
       <c r="E28" s="9">
         <v>165.18307999999999</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="184"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="8" t="s">
         <v>150</v>
       </c>
@@ -16386,7 +16554,9 @@
       <c r="M28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="42"/>
+      <c r="N28" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O28" s="42"/>
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16405,8 +16575,8 @@
       <c r="E29" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="175"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
       <c r="H29" s="8" t="s">
         <v>150</v>
       </c>
@@ -16423,7 +16593,9 @@
       <c r="M29" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N29" s="42"/>
+      <c r="N29" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O29" s="42"/>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16442,8 +16614,8 @@
       <c r="E30" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="175"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="8" t="s">
         <v>150</v>
       </c>
@@ -16460,7 +16632,9 @@
       <c r="M30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N30" s="42"/>
+      <c r="N30" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O30" s="42"/>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16479,8 +16653,8 @@
       <c r="E31" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="175"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="8" t="s">
         <v>150</v>
       </c>
@@ -16497,7 +16671,9 @@
       <c r="M31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="42"/>
+      <c r="N31" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O31" s="42"/>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16516,8 +16692,8 @@
       <c r="E32" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="175"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="8" t="s">
         <v>150</v>
       </c>
@@ -16534,7 +16710,9 @@
       <c r="M32" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="42"/>
+      <c r="N32" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O32" s="42"/>
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16553,8 +16731,8 @@
       <c r="E33" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="175"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="8" t="s">
         <v>150</v>
       </c>
@@ -16571,7 +16749,9 @@
       <c r="M33" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N33" s="42"/>
+      <c r="N33" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O33" s="42"/>
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16590,8 +16770,8 @@
       <c r="E34" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="175"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="8" t="s">
         <v>150</v>
       </c>
@@ -16608,7 +16788,9 @@
       <c r="M34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="42"/>
+      <c r="N34" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O34" s="42"/>
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16627,8 +16809,8 @@
       <c r="E35" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="175"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
       <c r="H35" s="8" t="s">
         <v>150</v>
       </c>
@@ -16645,7 +16827,9 @@
       <c r="M35" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N35" s="42"/>
+      <c r="N35" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O35" s="42"/>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16664,8 +16848,8 @@
       <c r="E36" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="175"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
       <c r="H36" s="8" t="s">
         <v>150</v>
       </c>
@@ -16682,7 +16866,9 @@
       <c r="M36" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="42"/>
+      <c r="N36" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O36" s="42"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16701,8 +16887,8 @@
       <c r="E37" s="9">
         <v>37.083282497250011</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="175"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
       <c r="H37" s="8" t="s">
         <v>150</v>
       </c>
@@ -16719,7 +16905,9 @@
       <c r="M37" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N37" s="42"/>
+      <c r="N37" s="186" t="s">
+        <v>95</v>
+      </c>
       <c r="O37" s="42"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
@@ -16738,8 +16926,8 @@
       <c r="E38" s="9">
         <v>150.75812082989998</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="175"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="8" t="s">
         <v>150</v>
       </c>
@@ -16756,377 +16944,439 @@
       <c r="M38" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N38" s="42"/>
+      <c r="N38" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O38" s="42"/>
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="187">
         <v>3.036</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="187">
         <v>45.420945379999999</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="8" t="s">
+      <c r="F39" s="185">
+        <v>1</v>
+      </c>
+      <c r="G39" s="188">
+        <v>0</v>
+      </c>
+      <c r="H39" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="139">
+      <c r="J39" s="190">
         <v>7</v>
       </c>
-      <c r="K39" s="140"/>
-      <c r="L39" s="12" t="s">
+      <c r="K39" s="191"/>
+      <c r="L39" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N39" s="42"/>
+      <c r="N39" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O39" s="42"/>
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="187">
         <v>3.2639999999999998</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="187">
         <v>61.408012210000003</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="8" t="s">
+      <c r="F40" s="185">
+        <v>0</v>
+      </c>
+      <c r="G40" s="185">
+        <v>0</v>
+      </c>
+      <c r="H40" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="139">
+      <c r="J40" s="190">
         <v>7</v>
       </c>
-      <c r="K40" s="140"/>
-      <c r="L40" s="12" t="s">
+      <c r="K40" s="191"/>
+      <c r="L40" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N40" s="42"/>
+      <c r="N40" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O40" s="42"/>
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="187">
         <v>2.4279999999999999</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="187">
         <v>67.666316499999994</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="8" t="s">
+      <c r="F41" s="185">
+        <v>0</v>
+      </c>
+      <c r="G41" s="185">
+        <v>0</v>
+      </c>
+      <c r="H41" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="139">
+      <c r="J41" s="190">
         <v>7</v>
       </c>
-      <c r="K41" s="140"/>
-      <c r="L41" s="12" t="s">
+      <c r="K41" s="191"/>
+      <c r="L41" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N41" s="42"/>
+      <c r="N41" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O41" s="42"/>
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="187">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="187">
         <v>25.706503519999998</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="8" t="s">
+      <c r="F42" s="185">
+        <v>0</v>
+      </c>
+      <c r="G42" s="185">
+        <v>0</v>
+      </c>
+      <c r="H42" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="139">
+      <c r="J42" s="190">
         <v>7</v>
       </c>
-      <c r="K42" s="140"/>
-      <c r="L42" s="12" t="s">
+      <c r="K42" s="191"/>
+      <c r="L42" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="42"/>
+      <c r="N42" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O42" s="42"/>
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="194">
         <v>3.2850000000000001</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="194">
         <v>139.5950848</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="8" t="s">
+      <c r="F43" s="184">
+        <v>0.42</v>
+      </c>
+      <c r="G43" s="195">
+        <v>0.42</v>
+      </c>
+      <c r="H43" s="193" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="139">
+      <c r="J43" s="197">
         <v>7</v>
       </c>
-      <c r="K43" s="140"/>
-      <c r="L43" s="12" t="s">
+      <c r="K43" s="198"/>
+      <c r="L43" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="N43" s="42"/>
+      <c r="N43" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O43" s="42"/>
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="187">
         <v>5.2176</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="187">
         <v>103.1260091</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="182"/>
-      <c r="H44" s="8" t="s">
+      <c r="F44" s="185">
+        <v>0</v>
+      </c>
+      <c r="G44" s="188">
+        <v>1</v>
+      </c>
+      <c r="H44" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="139">
+      <c r="J44" s="190">
         <v>7</v>
       </c>
-      <c r="K44" s="140"/>
-      <c r="L44" s="12" t="s">
+      <c r="K44" s="191"/>
+      <c r="L44" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N44" s="42"/>
+      <c r="N44" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O44" s="42"/>
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="187">
         <v>4.327</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="187">
         <v>115.1915241</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="8" t="s">
+      <c r="F45" s="185">
+        <v>0</v>
+      </c>
+      <c r="G45" s="188">
+        <v>1</v>
+      </c>
+      <c r="H45" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="139">
+      <c r="J45" s="190">
         <v>7</v>
       </c>
-      <c r="K45" s="140"/>
-      <c r="L45" s="12" t="s">
+      <c r="K45" s="191"/>
+      <c r="L45" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M45" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N45" s="42"/>
+      <c r="N45" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O45" s="42"/>
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="187">
         <v>2.4279999999999999</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="187">
         <v>65.549040759999997</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="8" t="s">
+      <c r="F46" s="185">
+        <v>0</v>
+      </c>
+      <c r="G46" s="188">
+        <v>1</v>
+      </c>
+      <c r="H46" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="139">
+      <c r="J46" s="190">
         <v>7</v>
       </c>
-      <c r="K46" s="140"/>
-      <c r="L46" s="12" t="s">
+      <c r="K46" s="191"/>
+      <c r="L46" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="42"/>
+      <c r="N46" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O46" s="42"/>
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="187">
         <v>8.0299999999999994</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="187">
         <v>145.97701989999999</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="8" t="s">
+      <c r="F47" s="185">
+        <v>0</v>
+      </c>
+      <c r="G47" s="188">
+        <v>0</v>
+      </c>
+      <c r="H47" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="139">
+      <c r="J47" s="190">
         <v>7</v>
       </c>
-      <c r="K47" s="140"/>
-      <c r="L47" s="12" t="s">
+      <c r="K47" s="191"/>
+      <c r="L47" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N47" s="42"/>
+      <c r="N47" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O47" s="42"/>
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="187">
         <v>7.51</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="187">
         <v>137.49720149999999</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="8" t="s">
+      <c r="F48" s="185">
+        <v>0</v>
+      </c>
+      <c r="G48" s="188">
+        <v>0</v>
+      </c>
+      <c r="H48" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="139">
+      <c r="J48" s="190">
         <v>7</v>
       </c>
-      <c r="K48" s="140"/>
-      <c r="L48" s="12" t="s">
+      <c r="K48" s="191"/>
+      <c r="L48" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M48" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="N48" s="42"/>
+      <c r="N48" s="186" t="s">
+        <v>99</v>
+      </c>
       <c r="O48" s="42"/>
     </row>
   </sheetData>
@@ -17143,26 +17393,26 @@
   <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="2" max="2" width="53" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="26" style="19" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -17454,7 +17704,7 @@
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>500</v>
       </c>
@@ -18232,7 +18482,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="28" spans="1:15" s="143" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="28" spans="1:15" s="143" customFormat="1" ht="32.4" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>482</v>
       </c>
@@ -18271,7 +18521,7 @@
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
     </row>
-    <row r="29" spans="1:15" s="143" customFormat="1" ht="34.15" customHeight="1">
+    <row r="29" spans="1:15" s="143" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>482</v>
       </c>
@@ -18856,7 +19106,7 @@
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>464</v>
       </c>
@@ -19160,7 +19410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.15" customHeight="1">
+    <row r="52" spans="1:13" ht="61.2" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>436</v>
       </c>
@@ -19197,7 +19447,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.15" customHeight="1">
+    <row r="53" spans="1:13" ht="58.2" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>436</v>
       </c>
@@ -19232,7 +19482,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>435</v>
       </c>
@@ -20007,7 +20257,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.65" customHeight="1">
+    <row r="75" spans="1:13" ht="62.7" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>408</v>
       </c>
@@ -20118,7 +20368,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.15" customHeight="1">
+    <row r="78" spans="1:13" ht="49.2" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>408</v>
       </c>
@@ -20155,7 +20405,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="37.5">
+    <row r="79" spans="1:13" ht="36">
       <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
@@ -20229,7 +20479,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="37.5">
+    <row r="81" spans="1:13" ht="36">
       <c r="A81" s="8" t="s">
         <v>408</v>
       </c>
@@ -20262,7 +20512,7 @@
       </c>
       <c r="M81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="41.65" customHeight="1">
+    <row r="82" spans="1:13" ht="41.7" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>408</v>
       </c>
@@ -20334,7 +20584,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5">
+    <row r="84" spans="1:13" ht="36">
       <c r="A84" s="8" t="s">
         <v>503</v>
       </c>
@@ -20369,7 +20619,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.15" customHeight="1">
+    <row r="85" spans="1:13" ht="43.2" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>503</v>
       </c>
@@ -20404,7 +20654,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.15" customHeight="1">
+    <row r="86" spans="1:13" ht="43.2" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>503</v>
       </c>
@@ -20439,7 +20689,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.15" customHeight="1">
+    <row r="87" spans="1:13" ht="43.2" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>503</v>
       </c>
@@ -20470,7 +20720,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>503</v>
       </c>
@@ -20505,7 +20755,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>503</v>
       </c>
@@ -20540,7 +20790,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>503</v>
       </c>
@@ -20575,7 +20825,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>503</v>
       </c>
@@ -20645,7 +20895,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.65" customHeight="1">
+    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>414</v>
       </c>
@@ -20682,7 +20932,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.65" customHeight="1">
+    <row r="94" spans="1:13" ht="59.7" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>414</v>
       </c>
@@ -20719,7 +20969,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.65" customHeight="1">
+    <row r="95" spans="1:13" ht="59.7" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>379</v>
       </c>
@@ -20756,7 +21006,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.65" customHeight="1">
+    <row r="96" spans="1:13" ht="59.7" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>379</v>
       </c>
@@ -20793,7 +21043,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>379</v>
       </c>
@@ -20830,7 +21080,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>379</v>
       </c>
@@ -20867,7 +21117,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>379</v>
       </c>
@@ -20904,7 +21154,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>379</v>
       </c>
@@ -20941,7 +21191,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="37.5">
+    <row r="101" spans="1:13" ht="36">
       <c r="A101" s="8" t="s">
         <v>379</v>
       </c>
@@ -20978,7 +21228,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="37.5">
+    <row r="102" spans="1:13" ht="36">
       <c r="A102" s="8" t="s">
         <v>379</v>
       </c>
@@ -21015,7 +21265,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="37.5">
+    <row r="103" spans="1:13" ht="36">
       <c r="A103" s="8" t="s">
         <v>379</v>
       </c>
@@ -21052,7 +21302,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5">
+    <row r="104" spans="1:13" ht="36">
       <c r="A104" s="8" t="s">
         <v>519</v>
       </c>
@@ -21091,7 +21341,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5">
+    <row r="105" spans="1:13" ht="36">
       <c r="A105" s="8" t="s">
         <v>519</v>
       </c>
@@ -21130,7 +21380,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="56.25">
+    <row r="106" spans="1:13" ht="36">
       <c r="A106" s="8" t="s">
         <v>519</v>
       </c>
@@ -21169,7 +21419,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5">
+    <row r="107" spans="1:13" ht="36">
       <c r="A107" s="8" t="s">
         <v>519</v>
       </c>
@@ -21245,7 +21495,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="37.5">
+    <row r="109" spans="1:13" ht="36">
       <c r="A109" s="8" t="s">
         <v>403</v>
       </c>
@@ -21282,7 +21532,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="37.5">
+    <row r="110" spans="1:13" ht="36">
       <c r="A110" s="8" t="s">
         <v>403</v>
       </c>
@@ -21319,7 +21569,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="37.5">
+    <row r="111" spans="1:13" ht="36">
       <c r="A111" s="8" t="s">
         <v>403</v>
       </c>
@@ -21356,7 +21606,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="37.5">
+    <row r="112" spans="1:13" ht="36">
       <c r="A112" s="8" t="s">
         <v>403</v>
       </c>
@@ -21393,7 +21643,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="37.5">
+    <row r="113" spans="1:13" ht="36">
       <c r="A113" s="8" t="s">
         <v>403</v>
       </c>
@@ -21430,7 +21680,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="37.5">
+    <row r="114" spans="1:13" ht="36">
       <c r="A114" s="8" t="s">
         <v>403</v>
       </c>
@@ -21467,7 +21717,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="37.5">
+    <row r="115" spans="1:13" ht="36">
       <c r="A115" s="8" t="s">
         <v>403</v>
       </c>
@@ -21541,7 +21791,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="37.5">
+    <row r="117" spans="1:13" ht="36">
       <c r="A117" s="8" t="s">
         <v>403</v>
       </c>
@@ -21578,7 +21828,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5">
+    <row r="118" spans="1:13" ht="36">
       <c r="A118" s="8" t="s">
         <v>403</v>
       </c>
@@ -21615,7 +21865,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="37.5">
+    <row r="119" spans="1:13" ht="36">
       <c r="A119" s="8" t="s">
         <v>403</v>
       </c>
@@ -21652,7 +21902,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.5">
+    <row r="120" spans="1:13" ht="36">
       <c r="A120" s="8" t="s">
         <v>403</v>
       </c>
@@ -21726,7 +21976,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5">
+    <row r="122" spans="1:13" ht="36">
       <c r="A122" s="8" t="s">
         <v>350</v>
       </c>
@@ -21765,7 +22015,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5">
+    <row r="123" spans="1:13" ht="36">
       <c r="A123" s="8" t="s">
         <v>350</v>
       </c>
@@ -21804,7 +22054,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="37.5">
+    <row r="124" spans="1:13" ht="36">
       <c r="A124" s="8" t="s">
         <v>350</v>
       </c>
@@ -21843,7 +22093,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5">
+    <row r="125" spans="1:13" ht="36">
       <c r="A125" s="8" t="s">
         <v>350</v>
       </c>
@@ -21882,7 +22132,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5">
+    <row r="126" spans="1:13" ht="36">
       <c r="A126" s="8" t="s">
         <v>350</v>
       </c>
@@ -21921,7 +22171,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5">
+    <row r="127" spans="1:13" ht="36">
       <c r="A127" s="8" t="s">
         <v>350</v>
       </c>
@@ -21960,7 +22210,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="37.5">
+    <row r="128" spans="1:13" ht="36">
       <c r="A128" s="8" t="s">
         <v>350</v>
       </c>
@@ -21999,7 +22249,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="37.5">
+    <row r="129" spans="1:14" ht="36">
       <c r="A129" s="8" t="s">
         <v>361</v>
       </c>
@@ -22038,7 +22288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="37.5">
+    <row r="130" spans="1:14" ht="36">
       <c r="A130" s="8" t="s">
         <v>374</v>
       </c>
@@ -22077,7 +22327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="37.5">
+    <row r="131" spans="1:14" ht="36">
       <c r="A131" s="8" t="s">
         <v>374</v>
       </c>
@@ -22116,7 +22366,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="37.5">
+    <row r="132" spans="1:14" ht="36">
       <c r="A132" s="8" t="s">
         <v>374</v>
       </c>
@@ -22155,7 +22405,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="37.5">
+    <row r="133" spans="1:14" ht="36">
       <c r="A133" s="8" t="s">
         <v>374</v>
       </c>
@@ -22194,7 +22444,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="37.5">
+    <row r="134" spans="1:14" ht="36">
       <c r="A134" s="8" t="s">
         <v>374</v>
       </c>
@@ -22233,7 +22483,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="37.5">
+    <row r="135" spans="1:14" ht="36">
       <c r="A135" s="8" t="s">
         <v>374</v>
       </c>
@@ -22272,7 +22522,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="37.5">
+    <row r="136" spans="1:14" ht="36">
       <c r="A136" s="8" t="s">
         <v>374</v>
       </c>
@@ -22311,7 +22561,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="37.5">
+    <row r="137" spans="1:14" ht="36">
       <c r="A137" s="8" t="s">
         <v>374</v>
       </c>
@@ -22350,7 +22600,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="37.5">
+    <row r="138" spans="1:14" ht="36">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>
@@ -22389,7 +22639,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="37.5">
+    <row r="139" spans="1:14" ht="36">
       <c r="A139" s="8" t="s">
         <v>369</v>
       </c>
@@ -22428,7 +22678,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5">
+    <row r="140" spans="1:14" ht="36">
       <c r="A140" s="8" t="s">
         <v>369</v>
       </c>
@@ -22467,7 +22717,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="37.5">
+    <row r="141" spans="1:14" ht="36">
       <c r="A141" s="8" t="s">
         <v>369</v>
       </c>
@@ -22506,7 +22756,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="37.5">
+    <row r="142" spans="1:14" ht="36">
       <c r="A142" s="56" t="s">
         <v>369</v>
       </c>
@@ -22585,7 +22835,7 @@
       </c>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
+    <row r="144" spans="1:14" ht="35.4" customHeight="1">
       <c r="A144" s="56" t="s">
         <v>566</v>
       </c>
@@ -22625,7 +22875,7 @@
       </c>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" ht="22.9" customHeight="1">
+    <row r="145" spans="1:14" ht="22.95" customHeight="1">
       <c r="A145" s="56" t="s">
         <v>566</v>
       </c>
@@ -22665,7 +22915,7 @@
       </c>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="1:14" ht="22.9" customHeight="1">
+    <row r="146" spans="1:14" ht="22.95" customHeight="1">
       <c r="A146" s="56" t="s">
         <v>566</v>
       </c>
@@ -22705,7 +22955,7 @@
       </c>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="1:14" ht="22.9" customHeight="1">
+    <row r="147" spans="1:14" ht="22.95" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>566</v>
       </c>
@@ -22745,7 +22995,7 @@
       </c>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="1:14" ht="14.45" customHeight="1">
+    <row r="148" spans="1:14" ht="14.4" customHeight="1">
       <c r="B148" s="168"/>
     </row>
   </sheetData>
@@ -22772,20 +23022,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -24679,25 +24929,25 @@
       <selection activeCell="A2" sqref="A2:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="17" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.4" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26672,21 +26922,21 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="48.75" customHeight="1">
@@ -28639,11 +28889,11 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -29254,23 +29504,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="125" customWidth="1"/>
     <col min="7" max="7" width="16" style="125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="128" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="125" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="128" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="125" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="128" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="125" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="128" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -31280,7 +31530,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1">
       <c r="D49" s="130"/>
       <c r="E49" s="114" t="s">
         <v>40</v>
@@ -31382,7 +31632,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E52" s="114" t="s">
         <v>74</v>
       </c>
@@ -31415,7 +31665,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E53" s="114" t="s">
         <v>92</v>
       </c>

--- a/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -2883,7 +2883,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3024,7 +3023,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3165,7 +3163,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3306,7 +3303,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3447,7 +3443,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3588,7 +3583,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8792,13 +8786,13 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>252</v>
       </c>
@@ -8806,7 +8800,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>253</v>
       </c>
@@ -8814,7 +8808,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>255</v>
       </c>
@@ -8822,7 +8816,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>257</v>
       </c>
@@ -8830,7 +8824,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>259</v>
       </c>
@@ -8838,7 +8832,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>261</v>
       </c>
@@ -8846,7 +8840,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>263</v>
       </c>
@@ -8854,7 +8848,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>265</v>
       </c>
@@ -8862,7 +8856,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>267</v>
       </c>
@@ -8870,7 +8864,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>269</v>
       </c>
@@ -8878,7 +8872,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>271</v>
       </c>
@@ -8886,7 +8880,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>272</v>
       </c>
@@ -8894,7 +8888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>273</v>
       </c>
@@ -8902,7 +8896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>274</v>
       </c>
@@ -8910,7 +8904,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>276</v>
       </c>
@@ -8918,7 +8912,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>278</v>
       </c>
@@ -8926,7 +8920,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>280</v>
       </c>
@@ -8934,7 +8928,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>282</v>
       </c>
@@ -8942,7 +8936,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>284</v>
       </c>
@@ -8950,7 +8944,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>286</v>
       </c>
@@ -8958,7 +8952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>288</v>
       </c>
@@ -8966,7 +8960,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>290</v>
       </c>
@@ -8974,7 +8968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>291</v>
       </c>
@@ -8982,7 +8976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>292</v>
       </c>
@@ -8990,7 +8984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>293</v>
       </c>
@@ -8998,7 +8992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>294</v>
       </c>
@@ -9006,7 +9000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>295</v>
       </c>
@@ -9014,7 +9008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>296</v>
       </c>
@@ -9022,7 +9016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>297</v>
       </c>
@@ -9030,7 +9024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>299</v>
       </c>
@@ -9038,7 +9032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>301</v>
       </c>
@@ -9060,24 +9054,24 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="63" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
@@ -9124,7 +9118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -9169,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="91">
         <v>2</v>
       </c>
@@ -9214,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>3</v>
       </c>
@@ -9261,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91">
         <v>4</v>
       </c>
@@ -9306,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91">
         <v>5</v>
       </c>
@@ -9351,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="91">
         <v>6</v>
       </c>
@@ -9398,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91">
         <v>7</v>
       </c>
@@ -9443,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="29" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="29" customFormat="1" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="91">
         <v>8</v>
       </c>
@@ -9490,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91">
         <v>9</v>
       </c>
@@ -9535,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91">
         <v>10</v>
       </c>
@@ -9580,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="29" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="29" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -9627,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="91">
         <v>12</v>
       </c>
@@ -9672,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="29" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91">
         <v>13</v>
       </c>
@@ -9717,7 +9711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="29" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="29" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91">
         <v>14</v>
       </c>
@@ -9764,7 +9758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="29" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="29" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91">
         <v>36</v>
       </c>
@@ -9811,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="29" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="29" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="91">
         <v>37</v>
       </c>
@@ -9854,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="91">
         <v>15</v>
       </c>
@@ -9901,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="91">
         <v>16</v>
       </c>
@@ -9948,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91">
         <v>17</v>
       </c>
@@ -9995,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="91">
         <v>18</v>
       </c>
@@ -10042,7 +10036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="29" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="29" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="91">
         <v>19</v>
       </c>
@@ -10089,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="91">
         <v>20</v>
       </c>
@@ -10136,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="29" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="29" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="91">
         <v>21</v>
       </c>
@@ -10183,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="91">
         <v>22</v>
       </c>
@@ -10228,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="91">
         <v>23</v>
       </c>
@@ -10275,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="91">
         <v>24</v>
       </c>
@@ -10322,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>25</v>
       </c>
@@ -10369,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="91">
         <v>26</v>
       </c>
@@ -10414,7 +10408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="91">
         <v>27</v>
       </c>
@@ -10459,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="91">
         <v>28</v>
       </c>
@@ -10504,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="91">
         <v>29</v>
       </c>
@@ -10549,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="91">
         <v>30</v>
       </c>
@@ -10594,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="91">
         <v>31</v>
       </c>
@@ -10639,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="91">
         <v>32</v>
       </c>
@@ -10684,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="91">
         <v>33</v>
       </c>
@@ -10729,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="91">
         <v>34</v>
       </c>
@@ -10774,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="91">
         <v>35</v>
       </c>
@@ -10821,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="91">
         <v>38</v>
       </c>
@@ -10866,7 +10860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="91">
         <v>39</v>
       </c>
@@ -10911,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="91">
         <v>40</v>
       </c>
@@ -10956,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91">
         <v>41</v>
       </c>
@@ -11003,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="91">
         <v>42</v>
       </c>
@@ -11048,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="91">
         <v>43</v>
       </c>
@@ -11095,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="91">
         <v>44</v>
       </c>
@@ -11140,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="91">
         <v>45</v>
       </c>
@@ -11185,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="91">
         <v>46</v>
       </c>
@@ -11230,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="108">
         <v>47</v>
       </c>
@@ -11275,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="43"/>
@@ -11307,7 +11301,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="46"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="74"/>
       <c r="B50" s="74"/>
       <c r="C50" s="115"/>
@@ -11324,7 +11318,7 @@
       <c r="N50" s="74"/>
       <c r="O50" s="117"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="74"/>
       <c r="B51" s="74"/>
       <c r="C51" s="115"/>
@@ -11341,7 +11335,7 @@
       <c r="N51" s="74"/>
       <c r="O51" s="117"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="74"/>
       <c r="B52" s="74"/>
       <c r="C52" s="115"/>
@@ -11358,8 +11352,8 @@
       <c r="N52" s="74"/>
       <c r="O52" s="117"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="16"/>
       <c r="F54" s="118" t="s">
         <v>331</v>
@@ -11381,7 +11375,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="73" t="s">
         <v>117</v>
       </c>
@@ -11411,7 +11405,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="73" t="s">
         <v>128</v>
       </c>
@@ -11441,7 +11435,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="73" t="s">
         <v>179</v>
       </c>
@@ -11471,7 +11465,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="73" t="s">
         <v>139</v>
       </c>
@@ -11501,7 +11495,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E59" s="73" t="s">
         <v>150</v>
       </c>
@@ -11531,7 +11525,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="73" t="s">
         <v>169</v>
       </c>
@@ -11561,7 +11555,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F61" s="76">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11588,7 +11582,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E62" s="75"/>
       <c r="F62" s="74"/>
       <c r="G62" s="74"/>
@@ -11597,8 +11591,8 @@
       <c r="J62" s="74"/>
       <c r="K62" s="74"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11623,25 +11617,25 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="52" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="52" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="63" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
@@ -11689,7 +11683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="50">
         <v>2</v>
       </c>
@@ -11730,7 +11724,7 @@
       <c r="O2" s="50"/>
       <c r="P2" s="63"/>
     </row>
-    <row r="3" spans="1:16" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="50">
         <v>5</v>
       </c>
@@ -11771,7 +11765,7 @@
       <c r="O3" s="50"/>
       <c r="P3" s="63"/>
     </row>
-    <row r="4" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="50">
         <v>6</v>
       </c>
@@ -11812,7 +11806,7 @@
       <c r="O4" s="37"/>
       <c r="P4" s="64"/>
     </row>
-    <row r="5" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="50">
         <v>7</v>
       </c>
@@ -11853,7 +11847,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="64"/>
     </row>
-    <row r="6" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>8</v>
       </c>
@@ -11894,7 +11888,7 @@
       <c r="O6" s="72"/>
       <c r="P6" s="65"/>
     </row>
-    <row r="7" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="50">
         <v>9</v>
       </c>
@@ -11935,7 +11929,7 @@
       <c r="O7" s="72"/>
       <c r="P7" s="63"/>
     </row>
-    <row r="8" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="50">
         <v>1</v>
       </c>
@@ -11976,7 +11970,7 @@
       <c r="O8" s="50"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="50">
         <v>3</v>
       </c>
@@ -12019,7 +12013,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="50">
         <v>4</v>
       </c>
@@ -12062,7 +12056,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50">
         <v>10</v>
       </c>
@@ -12103,7 +12097,7 @@
       <c r="O11" s="72"/>
       <c r="P11" s="63"/>
     </row>
-    <row r="12" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="50">
         <v>11</v>
       </c>
@@ -12144,7 +12138,7 @@
       <c r="O12" s="72"/>
       <c r="P12" s="63"/>
     </row>
-    <row r="13" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="50">
         <v>12</v>
       </c>
@@ -12185,7 +12179,7 @@
       <c r="O13" s="72"/>
       <c r="P13" s="63"/>
     </row>
-    <row r="14" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="50">
         <v>13</v>
       </c>
@@ -12226,7 +12220,7 @@
       <c r="O14" s="72"/>
       <c r="P14" s="63"/>
     </row>
-    <row r="15" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="50">
         <v>14</v>
       </c>
@@ -12267,7 +12261,7 @@
       <c r="O15" s="72"/>
       <c r="P15" s="63"/>
     </row>
-    <row r="16" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="50">
         <v>15</v>
       </c>
@@ -12308,7 +12302,7 @@
       <c r="O16" s="72"/>
       <c r="P16" s="63"/>
     </row>
-    <row r="17" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="50">
         <v>16</v>
       </c>
@@ -12349,7 +12343,7 @@
       <c r="O17" s="51"/>
       <c r="P17" s="63"/>
     </row>
-    <row r="18" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="50">
         <v>17</v>
       </c>
@@ -12390,7 +12384,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="64"/>
     </row>
-    <row r="19" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="50">
         <v>18</v>
       </c>
@@ -12431,7 +12425,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="64"/>
     </row>
-    <row r="20" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="50">
         <v>19</v>
       </c>
@@ -12472,7 +12466,7 @@
       <c r="O20" s="26"/>
       <c r="P20" s="63"/>
     </row>
-    <row r="21" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="50">
         <v>20</v>
       </c>
@@ -12513,7 +12507,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="63"/>
     </row>
-    <row r="22" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="50">
         <v>21</v>
       </c>
@@ -12554,7 +12548,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="63"/>
     </row>
-    <row r="23" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="50">
         <v>22</v>
       </c>
@@ -12595,7 +12589,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="63"/>
     </row>
-    <row r="24" spans="1:17" s="29" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="29" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>23</v>
       </c>
@@ -12638,7 +12632,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="50">
         <v>24</v>
       </c>
@@ -12679,7 +12673,7 @@
       <c r="O25" s="51"/>
       <c r="P25" s="64"/>
     </row>
-    <row r="26" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="50">
         <v>25</v>
       </c>
@@ -12720,7 +12714,7 @@
       <c r="O26" s="27"/>
       <c r="P26" s="64"/>
     </row>
-    <row r="27" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="50">
         <v>26</v>
       </c>
@@ -12761,7 +12755,7 @@
       <c r="O27" s="26"/>
       <c r="P27" s="63"/>
     </row>
-    <row r="28" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="50">
         <v>27</v>
       </c>
@@ -12803,7 +12797,7 @@
       <c r="P28" s="64"/>
       <c r="Q28" s="30"/>
     </row>
-    <row r="29" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="50">
         <v>28</v>
       </c>
@@ -12845,7 +12839,7 @@
       <c r="P29" s="64"/>
       <c r="Q29" s="30"/>
     </row>
-    <row r="30" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="50">
         <v>29</v>
       </c>
@@ -12887,7 +12881,7 @@
       <c r="P30" s="63"/>
       <c r="Q30" s="30"/>
     </row>
-    <row r="31" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="50">
         <v>31</v>
       </c>
@@ -12929,7 +12923,7 @@
       <c r="P31" s="65"/>
       <c r="Q31" s="30"/>
     </row>
-    <row r="32" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>32</v>
       </c>
@@ -12971,7 +12965,7 @@
       <c r="P32" s="65"/>
       <c r="Q32" s="30"/>
     </row>
-    <row r="33" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="50">
         <v>34</v>
       </c>
@@ -13013,7 +13007,7 @@
       <c r="P33" s="64"/>
       <c r="Q33" s="30"/>
     </row>
-    <row r="34" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="50">
         <v>35</v>
       </c>
@@ -13055,7 +13049,7 @@
       <c r="P34" s="63"/>
       <c r="Q34" s="30"/>
     </row>
-    <row r="35" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="50">
         <v>37</v>
       </c>
@@ -13097,7 +13091,7 @@
       <c r="P35" s="63"/>
       <c r="Q35" s="30"/>
     </row>
-    <row r="36" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="50">
         <v>38</v>
       </c>
@@ -13138,7 +13132,7 @@
       <c r="O36" s="50"/>
       <c r="P36" s="63"/>
     </row>
-    <row r="37" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="50">
         <v>40</v>
       </c>
@@ -13179,7 +13173,7 @@
       <c r="O37" s="50"/>
       <c r="P37" s="63"/>
     </row>
-    <row r="38" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="50">
         <v>41</v>
       </c>
@@ -13220,7 +13214,7 @@
       <c r="O38" s="34"/>
       <c r="P38" s="63"/>
     </row>
-    <row r="39" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="50">
         <v>42</v>
       </c>
@@ -13262,7 +13256,7 @@
       <c r="P39" s="63"/>
       <c r="Q39" s="29"/>
     </row>
-    <row r="40" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="50">
         <v>44</v>
       </c>
@@ -13304,7 +13298,7 @@
       <c r="P40" s="66"/>
       <c r="Q40" s="29"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="50">
         <v>45</v>
       </c>
@@ -13346,7 +13340,7 @@
       <c r="P41" s="63"/>
       <c r="Q41" s="26"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <v>30</v>
       </c>
@@ -13390,7 +13384,7 @@
       </c>
       <c r="Q42" s="26"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="50">
         <v>33</v>
       </c>
@@ -13434,7 +13428,7 @@
       </c>
       <c r="Q43" s="26"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
         <v>36</v>
       </c>
@@ -13478,7 +13472,7 @@
       </c>
       <c r="Q44" s="26"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="50">
         <v>39</v>
       </c>
@@ -13522,7 +13516,7 @@
       </c>
       <c r="Q45" s="26"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="50">
         <v>43</v>
       </c>
@@ -13566,7 +13560,7 @@
       </c>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>46</v>
       </c>
@@ -13608,7 +13602,7 @@
       <c r="P47" s="65"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>47</v>
       </c>
@@ -13650,7 +13644,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="26"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="204" t="s">
         <v>113</v>
       </c>
@@ -13685,7 +13679,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="68"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="73"/>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
@@ -13703,7 +13697,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="68"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="73"/>
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
@@ -13721,7 +13715,7 @@
       <c r="O51" s="16"/>
       <c r="P51" s="68"/>
     </row>
-    <row r="52" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="43"/>
@@ -13751,7 +13745,7 @@
       <c r="O52" s="16"/>
       <c r="P52" s="70"/>
     </row>
-    <row r="53" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="77" t="s">
         <v>314</v>
       </c>
@@ -13782,7 +13776,7 @@
         <v>24.280972371470511</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="41" t="s">
         <v>312</v>
       </c>
@@ -13813,7 +13807,7 @@
         <v>321.41999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="41" t="s">
         <v>310</v>
       </c>
@@ -13844,7 +13838,7 @@
         <v>420.17818111272254</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="41" t="s">
         <v>308</v>
       </c>
@@ -13875,7 +13869,7 @@
         <v>296.76</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="41" t="s">
         <v>306</v>
       </c>
@@ -13906,7 +13900,7 @@
         <v>1459.6509999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="120" t="s">
         <v>303</v>
       </c>
@@ -13937,7 +13931,7 @@
         <v>560.4530062188478</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="74"/>
       <c r="E59" s="41" t="s">
         <v>348</v>
@@ -13969,9 +13963,9 @@
         <v>3082.7431597030409</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:P48">
     <sortCondition ref="B2:B48"/>
@@ -13995,15 +13989,15 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>314</v>
       </c>
@@ -14023,27 +14017,27 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="78" t="s">
         <v>336</v>
       </c>
@@ -14066,7 +14060,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="78" t="s">
         <v>314</v>
       </c>
@@ -14090,7 +14084,7 @@
         <v>24.280972371470511</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="78" t="s">
         <v>312</v>
       </c>
@@ -14114,7 +14108,7 @@
         <v>321.41999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="78" t="s">
         <v>310</v>
       </c>
@@ -14138,7 +14132,7 @@
         <v>420.17818111272254</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="78" t="s">
         <v>308</v>
       </c>
@@ -14162,7 +14156,7 @@
         <v>296.76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="78" t="s">
         <v>306</v>
       </c>
@@ -14186,7 +14180,7 @@
         <v>1459.6509999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="78" t="s">
         <v>303</v>
       </c>
@@ -14210,7 +14204,7 @@
         <v>560.4530062188478</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="78" t="s">
         <v>336</v>
       </c>
@@ -14236,7 +14230,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="111" t="s">
         <v>13</v>
       </c>
@@ -14260,7 +14254,7 @@
       </c>
       <c r="I36" s="111"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="111" t="s">
         <v>22</v>
       </c>
@@ -14284,7 +14278,7 @@
       </c>
       <c r="I37" s="111"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="111" t="s">
         <v>34</v>
       </c>
@@ -14308,7 +14302,7 @@
       </c>
       <c r="I38" s="111"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="111" t="s">
         <v>40</v>
       </c>
@@ -14332,7 +14326,7 @@
       </c>
       <c r="I39" s="111"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="111" t="s">
         <v>53</v>
       </c>
@@ -14356,7 +14350,7 @@
       </c>
       <c r="I40" s="111"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="111" t="s">
         <v>63</v>
       </c>
@@ -14380,7 +14374,7 @@
       </c>
       <c r="I41" s="111"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="111" t="s">
         <v>74</v>
       </c>
@@ -14404,7 +14398,7 @@
       </c>
       <c r="I42" s="111"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="111"/>
       <c r="C66" s="111" t="s">
         <v>331</v>
@@ -14425,7 +14419,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="111" t="s">
         <v>117</v>
       </c>
@@ -14448,7 +14442,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="111" t="s">
         <v>128</v>
       </c>
@@ -14471,7 +14465,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="111" t="s">
         <v>179</v>
       </c>
@@ -14494,7 +14488,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="111" t="s">
         <v>139</v>
       </c>
@@ -14517,7 +14511,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="111" t="s">
         <v>150</v>
       </c>
@@ -14540,7 +14534,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="111" t="s">
         <v>169</v>
       </c>
@@ -14577,16 +14571,16 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="150" t="s">
         <v>547</v>
       </c>
@@ -14603,7 +14597,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="150" t="s">
         <v>548</v>
       </c>
@@ -14614,7 +14608,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="150" t="s">
         <v>549</v>
       </c>
@@ -14625,7 +14619,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="150" t="s">
         <v>550</v>
       </c>
@@ -14636,7 +14630,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="150" t="s">
         <v>551</v>
       </c>
@@ -14647,7 +14641,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="150" t="s">
         <v>552</v>
       </c>
@@ -14658,7 +14652,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="150" t="s">
         <v>553</v>
       </c>
@@ -14669,7 +14663,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="s">
         <v>554</v>
       </c>
@@ -14680,7 +14674,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="150" t="s">
         <v>555</v>
       </c>
@@ -14691,7 +14685,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="150" t="s">
         <v>556</v>
       </c>
@@ -14702,7 +14696,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="150" t="s">
         <v>559</v>
       </c>
@@ -14713,7 +14707,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="150" t="s">
         <v>557</v>
       </c>
@@ -14724,7 +14718,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="150" t="s">
         <v>558</v>
       </c>
@@ -14776,23 +14770,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="52" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>117</v>
@@ -14813,7 +14807,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="150" t="s">
         <v>548</v>
       </c>
@@ -14830,7 +14824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="150" t="s">
         <v>549</v>
       </c>
@@ -14845,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="150" t="s">
         <v>550</v>
       </c>
@@ -14866,7 +14860,7 @@
         <v>1478.11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="150" t="s">
         <v>551</v>
       </c>
@@ -14883,7 +14877,7 @@
         <v>667.67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="150" t="s">
         <v>552</v>
       </c>
@@ -14902,7 +14896,7 @@
         <v>766.97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="150" t="s">
         <v>553</v>
       </c>
@@ -14917,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="150" t="s">
         <v>554</v>
       </c>
@@ -14936,7 +14930,7 @@
         <v>1152.82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="150" t="s">
         <v>555</v>
       </c>
@@ -14953,7 +14947,7 @@
         <v>655.94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="150" t="s">
         <v>556</v>
       </c>
@@ -14968,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="150" t="s">
         <v>559</v>
       </c>
@@ -14983,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="150" t="s">
         <v>557</v>
       </c>
@@ -14998,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="150" t="s">
         <v>558</v>
       </c>
@@ -15013,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="113">
         <f>SUM(B2:B13)</f>
         <v>938.27</v>
@@ -15059,17 +15053,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>563</v>
       </c>
@@ -15089,7 +15083,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>222</v>
       </c>
@@ -15109,7 +15103,7 @@
       <c r="I2" s="165"/>
       <c r="J2" s="74"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>224</v>
       </c>
@@ -15129,7 +15123,7 @@
       <c r="I3" s="165"/>
       <c r="J3" s="74"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>226</v>
       </c>
@@ -15149,7 +15143,7 @@
       <c r="I4" s="165"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>228</v>
       </c>
@@ -15169,7 +15163,7 @@
       <c r="I5" s="165"/>
       <c r="J5" s="74"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>230</v>
       </c>
@@ -15189,7 +15183,7 @@
       <c r="I6" s="165"/>
       <c r="J6" s="74"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>232</v>
       </c>
@@ -15209,7 +15203,7 @@
       <c r="I7" s="165"/>
       <c r="J7" s="74"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>234</v>
       </c>
@@ -15229,7 +15223,7 @@
       <c r="I8" s="165"/>
       <c r="J8" s="74"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>236</v>
       </c>
@@ -15249,7 +15243,7 @@
       <c r="I9" s="165"/>
       <c r="J9" s="74"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>238</v>
       </c>
@@ -15267,7 +15261,7 @@
       <c r="I10" s="165"/>
       <c r="J10" s="74"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -15285,7 +15279,7 @@
       <c r="I11" s="165"/>
       <c r="J11" s="74"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="113" t="s">
         <v>242</v>
       </c>
@@ -15305,7 +15299,7 @@
       <c r="I12" s="165"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>244</v>
       </c>
@@ -15323,7 +15317,7 @@
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>246</v>
       </c>
@@ -15341,7 +15335,7 @@
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>248</v>
       </c>
@@ -15356,7 +15350,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>250</v>
       </c>
@@ -15381,28 +15375,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15444,7 +15438,7 @@
       </c>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>115</v>
       </c>
@@ -15484,7 +15478,7 @@
       </c>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>115</v>
       </c>
@@ -15524,7 +15518,7 @@
       </c>
       <c r="N3" s="42"/>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="152" t="s">
         <v>115</v>
       </c>
@@ -15564,7 +15558,7 @@
       </c>
       <c r="N4" s="42"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="152" t="s">
         <v>115</v>
       </c>
@@ -15604,7 +15598,7 @@
       </c>
       <c r="N5" s="42"/>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="152" t="s">
         <v>115</v>
       </c>
@@ -15644,7 +15638,7 @@
       </c>
       <c r="N6" s="42"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="152" t="s">
         <v>115</v>
       </c>
@@ -15684,7 +15678,7 @@
       </c>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="152" t="s">
         <v>126</v>
       </c>
@@ -15724,7 +15718,7 @@
       </c>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
         <v>126</v>
       </c>
@@ -15764,7 +15758,7 @@
       </c>
       <c r="N9" s="42"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="152" t="s">
         <v>126</v>
       </c>
@@ -15804,7 +15798,7 @@
       </c>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="152" t="s">
         <v>126</v>
       </c>
@@ -15844,7 +15838,7 @@
       </c>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="152" t="s">
         <v>126</v>
       </c>
@@ -15884,7 +15878,7 @@
       </c>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="152" t="s">
         <v>126</v>
       </c>
@@ -15924,7 +15918,7 @@
       </c>
       <c r="N13" s="42"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="152" t="s">
         <v>126</v>
       </c>
@@ -15964,7 +15958,7 @@
       </c>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
         <v>126</v>
       </c>
@@ -16004,7 +15998,7 @@
       </c>
       <c r="N15" s="42"/>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="185" t="s">
         <v>126</v>
       </c>
@@ -16042,7 +16036,7 @@
       </c>
       <c r="N16" s="42"/>
     </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="152" t="s">
         <v>164</v>
       </c>
@@ -16082,7 +16076,7 @@
       </c>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="152" t="s">
         <v>164</v>
       </c>
@@ -16122,7 +16116,7 @@
       </c>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>137</v>
       </c>
@@ -16162,7 +16156,7 @@
       </c>
       <c r="N19" s="42"/>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>137</v>
       </c>
@@ -16202,7 +16196,7 @@
       </c>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>137</v>
       </c>
@@ -16242,7 +16236,7 @@
       </c>
       <c r="N21" s="42"/>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>143</v>
       </c>
@@ -16282,7 +16276,7 @@
       </c>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>143</v>
       </c>
@@ -16322,7 +16316,7 @@
       </c>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>143</v>
       </c>
@@ -16362,7 +16356,7 @@
       </c>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>137</v>
       </c>
@@ -16402,7 +16396,7 @@
       </c>
       <c r="N25" s="42"/>
     </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="152" t="s">
         <v>148</v>
       </c>
@@ -16442,7 +16436,7 @@
       </c>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="152" t="s">
         <v>148</v>
       </c>
@@ -16482,7 +16476,7 @@
       </c>
       <c r="N27" s="42"/>
     </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="152" t="s">
         <v>148</v>
       </c>
@@ -16522,7 +16516,7 @@
       </c>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="152" t="s">
         <v>148</v>
       </c>
@@ -16562,7 +16556,7 @@
       </c>
       <c r="N29" s="42"/>
     </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="152" t="s">
         <v>148</v>
       </c>
@@ -16602,7 +16596,7 @@
       </c>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="152" t="s">
         <v>148</v>
       </c>
@@ -16642,7 +16636,7 @@
       </c>
       <c r="N31" s="42"/>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="152" t="s">
         <v>148</v>
       </c>
@@ -16682,7 +16676,7 @@
       </c>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="152" t="s">
         <v>148</v>
       </c>
@@ -16722,7 +16716,7 @@
       </c>
       <c r="N33" s="42"/>
     </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="152" t="s">
         <v>148</v>
       </c>
@@ -16762,7 +16756,7 @@
       </c>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="152" t="s">
         <v>148</v>
       </c>
@@ -16802,7 +16796,7 @@
       </c>
       <c r="N35" s="42"/>
     </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="152" t="s">
         <v>148</v>
       </c>
@@ -16842,7 +16836,7 @@
       </c>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="152" t="s">
         <v>148</v>
       </c>
@@ -16882,7 +16876,7 @@
       </c>
       <c r="N37" s="42"/>
     </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="152" t="s">
         <v>148</v>
       </c>
@@ -16922,7 +16916,7 @@
       </c>
       <c r="N38" s="42"/>
     </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="152" t="s">
         <v>148</v>
       </c>
@@ -16962,7 +16956,7 @@
       </c>
       <c r="N39" s="42"/>
     </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="155" t="s">
         <v>167</v>
       </c>
@@ -17002,7 +16996,7 @@
       </c>
       <c r="N40" s="42"/>
     </row>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="155" t="s">
         <v>167</v>
       </c>
@@ -17042,7 +17036,7 @@
       </c>
       <c r="N41" s="42"/>
     </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="155" t="s">
         <v>167</v>
       </c>
@@ -17082,7 +17076,7 @@
       </c>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="155" t="s">
         <v>167</v>
       </c>
@@ -17122,7 +17116,7 @@
       </c>
       <c r="N43" s="42"/>
     </row>
-    <row r="44" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="185" t="s">
         <v>167</v>
       </c>
@@ -17162,7 +17156,7 @@
       </c>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="155" t="s">
         <v>167</v>
       </c>
@@ -17202,7 +17196,7 @@
       </c>
       <c r="N45" s="42"/>
     </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="155" t="s">
         <v>167</v>
       </c>
@@ -17242,7 +17236,7 @@
       </c>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="155" t="s">
         <v>167</v>
       </c>
@@ -17282,7 +17276,7 @@
       </c>
       <c r="N47" s="42"/>
     </row>
-    <row r="48" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="155" t="s">
         <v>167</v>
       </c>
@@ -17322,7 +17316,7 @@
       </c>
       <c r="N48" s="42"/>
     </row>
-    <row r="49" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="155" t="s">
         <v>167</v>
       </c>
@@ -17379,26 +17373,26 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="2" max="2" width="53" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="26" style="19" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17441,7 +17435,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>523</v>
       </c>
@@ -17482,7 +17476,7 @@
       <c r="N2" s="42"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" s="13" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="13" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>523</v>
       </c>
@@ -17523,7 +17517,7 @@
       <c r="N3" s="42"/>
       <c r="O3" s="42"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>523</v>
       </c>
@@ -17564,7 +17558,7 @@
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
     </row>
-    <row r="5" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>523</v>
       </c>
@@ -17605,7 +17599,7 @@
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
     </row>
-    <row r="6" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>523</v>
       </c>
@@ -17646,7 +17640,7 @@
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
     </row>
-    <row r="7" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>523</v>
       </c>
@@ -17687,7 +17681,7 @@
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>500</v>
       </c>
@@ -17726,7 +17720,7 @@
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
     </row>
-    <row r="9" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>500</v>
       </c>
@@ -17765,7 +17759,7 @@
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
     </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>500</v>
       </c>
@@ -17804,7 +17798,7 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
     </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>500</v>
       </c>
@@ -17843,7 +17837,7 @@
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
     </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>500</v>
       </c>
@@ -17882,7 +17876,7 @@
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
     </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>500</v>
       </c>
@@ -17921,7 +17915,7 @@
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>500</v>
       </c>
@@ -17960,7 +17954,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>493</v>
       </c>
@@ -17999,7 +17993,7 @@
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
     </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>493</v>
       </c>
@@ -18038,7 +18032,7 @@
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>493</v>
       </c>
@@ -18075,7 +18069,7 @@
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>487</v>
       </c>
@@ -18114,7 +18108,7 @@
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>487</v>
       </c>
@@ -18153,7 +18147,7 @@
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>487</v>
       </c>
@@ -18192,7 +18186,7 @@
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>487</v>
       </c>
@@ -18231,7 +18225,7 @@
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
     </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>482</v>
       </c>
@@ -18270,7 +18264,7 @@
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
     </row>
-    <row r="23" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>482</v>
       </c>
@@ -18309,7 +18303,7 @@
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>482</v>
       </c>
@@ -18348,7 +18342,7 @@
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
     </row>
-    <row r="25" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>482</v>
       </c>
@@ -18387,7 +18381,7 @@
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
     </row>
-    <row r="26" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>482</v>
       </c>
@@ -18426,7 +18420,7 @@
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
     </row>
-    <row r="27" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>482</v>
       </c>
@@ -18465,7 +18459,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="28" spans="1:15" s="143" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="143" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>482</v>
       </c>
@@ -18504,7 +18498,7 @@
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
     </row>
-    <row r="29" spans="1:15" s="143" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="143" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>482</v>
       </c>
@@ -18543,7 +18537,7 @@
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
     </row>
-    <row r="30" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>473</v>
       </c>
@@ -18582,7 +18576,7 @@
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
     </row>
-    <row r="31" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="143" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>473</v>
       </c>
@@ -18621,7 +18615,7 @@
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
     </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>473</v>
       </c>
@@ -18660,7 +18654,7 @@
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
     </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>473</v>
       </c>
@@ -18699,7 +18693,7 @@
       <c r="N33" s="42"/>
       <c r="O33" s="42"/>
     </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>473</v>
       </c>
@@ -18738,7 +18732,7 @@
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
     </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>473</v>
       </c>
@@ -18777,7 +18771,7 @@
       <c r="N35" s="42"/>
       <c r="O35" s="42"/>
     </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>473</v>
       </c>
@@ -18816,7 +18810,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>464</v>
       </c>
@@ -18855,7 +18849,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>464</v>
       </c>
@@ -18894,7 +18888,7 @@
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
     </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>464</v>
       </c>
@@ -18933,7 +18927,7 @@
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
     </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>464</v>
       </c>
@@ -18972,7 +18966,7 @@
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
     </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>464</v>
       </c>
@@ -19011,7 +19005,7 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
     </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>464</v>
       </c>
@@ -19050,7 +19044,7 @@
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
     </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>464</v>
       </c>
@@ -19089,7 +19083,7 @@
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>464</v>
       </c>
@@ -19128,7 +19122,7 @@
       <c r="N44" s="42"/>
       <c r="O44" s="42"/>
     </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="13" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>464</v>
       </c>
@@ -19165,7 +19159,7 @@
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
     </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>440</v>
       </c>
@@ -19204,7 +19198,7 @@
       <c r="N46" s="42"/>
       <c r="O46" s="42"/>
     </row>
-    <row r="47" spans="1:15" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>440</v>
       </c>
@@ -19243,7 +19237,7 @@
       <c r="N47" s="42"/>
       <c r="O47" s="42"/>
     </row>
-    <row r="48" spans="1:15" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>440</v>
       </c>
@@ -19282,7 +19276,7 @@
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
     </row>
-    <row r="49" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>440</v>
       </c>
@@ -19319,7 +19313,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>436</v>
       </c>
@@ -19356,7 +19350,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>436</v>
       </c>
@@ -19393,7 +19387,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>436</v>
       </c>
@@ -19430,7 +19424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>436</v>
       </c>
@@ -19465,7 +19459,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>435</v>
       </c>
@@ -19502,7 +19496,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>435</v>
       </c>
@@ -19539,7 +19533,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>423</v>
       </c>
@@ -19576,7 +19570,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>423</v>
       </c>
@@ -19613,7 +19607,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>423</v>
       </c>
@@ -19650,7 +19644,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>423</v>
       </c>
@@ -19687,7 +19681,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>423</v>
       </c>
@@ -19724,7 +19718,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>423</v>
       </c>
@@ -19761,7 +19755,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>423</v>
       </c>
@@ -19798,7 +19792,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>452</v>
       </c>
@@ -19835,7 +19829,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>452</v>
       </c>
@@ -19872,7 +19866,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>452</v>
       </c>
@@ -19909,7 +19903,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>449</v>
       </c>
@@ -19946,7 +19940,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>449</v>
       </c>
@@ -19983,7 +19977,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>446</v>
       </c>
@@ -20020,7 +20014,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>446</v>
       </c>
@@ -20057,7 +20051,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>427</v>
       </c>
@@ -20094,7 +20088,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>427</v>
       </c>
@@ -20131,7 +20125,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>427</v>
       </c>
@@ -20166,7 +20160,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>408</v>
       </c>
@@ -20203,7 +20197,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>408</v>
       </c>
@@ -20240,7 +20234,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="62.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>408</v>
       </c>
@@ -20277,7 +20271,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>408</v>
       </c>
@@ -20314,7 +20308,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>408</v>
       </c>
@@ -20351,7 +20345,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>408</v>
       </c>
@@ -20388,7 +20382,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
@@ -20425,7 +20419,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>408</v>
       </c>
@@ -20462,7 +20456,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>408</v>
       </c>
@@ -20495,7 +20489,7 @@
       </c>
       <c r="M81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>408</v>
       </c>
@@ -20532,7 +20526,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>503</v>
       </c>
@@ -20567,7 +20561,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>503</v>
       </c>
@@ -20602,7 +20596,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>503</v>
       </c>
@@ -20637,7 +20631,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>503</v>
       </c>
@@ -20672,7 +20666,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>503</v>
       </c>
@@ -20703,7 +20697,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>503</v>
       </c>
@@ -20738,7 +20732,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>503</v>
       </c>
@@ -20773,7 +20767,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>503</v>
       </c>
@@ -20808,7 +20802,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>503</v>
       </c>
@@ -20843,7 +20837,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>503</v>
       </c>
@@ -20878,7 +20872,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>414</v>
       </c>
@@ -20915,7 +20909,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>414</v>
       </c>
@@ -20952,7 +20946,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>379</v>
       </c>
@@ -20989,7 +20983,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>379</v>
       </c>
@@ -21026,7 +21020,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>379</v>
       </c>
@@ -21063,7 +21057,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>379</v>
       </c>
@@ -21100,7 +21094,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>379</v>
       </c>
@@ -21137,7 +21131,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>379</v>
       </c>
@@ -21174,7 +21168,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>379</v>
       </c>
@@ -21211,7 +21205,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>379</v>
       </c>
@@ -21248,7 +21242,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>379</v>
       </c>
@@ -21285,7 +21279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>519</v>
       </c>
@@ -21324,7 +21318,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>519</v>
       </c>
@@ -21363,7 +21357,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>519</v>
       </c>
@@ -21402,7 +21396,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>519</v>
       </c>
@@ -21441,7 +21435,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>403</v>
       </c>
@@ -21478,7 +21472,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>403</v>
       </c>
@@ -21515,7 +21509,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>403</v>
       </c>
@@ -21552,7 +21546,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>403</v>
       </c>
@@ -21589,7 +21583,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>403</v>
       </c>
@@ -21626,7 +21620,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>403</v>
       </c>
@@ -21663,7 +21657,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>403</v>
       </c>
@@ -21700,7 +21694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>403</v>
       </c>
@@ -21737,7 +21731,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>403</v>
       </c>
@@ -21774,7 +21768,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>403</v>
       </c>
@@ -21811,7 +21805,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>403</v>
       </c>
@@ -21848,7 +21842,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>403</v>
       </c>
@@ -21885,7 +21879,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>403</v>
       </c>
@@ -21922,7 +21916,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>403</v>
       </c>
@@ -21959,7 +21953,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>350</v>
       </c>
@@ -21998,7 +21992,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>350</v>
       </c>
@@ -22037,7 +22031,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>350</v>
       </c>
@@ -22076,7 +22070,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>350</v>
       </c>
@@ -22115,7 +22109,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>350</v>
       </c>
@@ -22154,7 +22148,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>350</v>
       </c>
@@ -22193,7 +22187,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="36" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>350</v>
       </c>
@@ -22232,7 +22226,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>361</v>
       </c>
@@ -22271,7 +22265,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>374</v>
       </c>
@@ -22310,7 +22304,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>374</v>
       </c>
@@ -22349,7 +22343,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>374</v>
       </c>
@@ -22388,7 +22382,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>374</v>
       </c>
@@ -22427,7 +22421,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>374</v>
       </c>
@@ -22466,7 +22460,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>374</v>
       </c>
@@ -22505,7 +22499,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>374</v>
       </c>
@@ -22544,7 +22538,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>374</v>
       </c>
@@ -22583,7 +22577,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>
@@ -22622,7 +22616,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>369</v>
       </c>
@@ -22661,7 +22655,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>369</v>
       </c>
@@ -22700,7 +22694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>369</v>
       </c>
@@ -22739,7 +22733,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="36" x14ac:dyDescent="0.3">
       <c r="A142" s="56" t="s">
         <v>369</v>
       </c>
@@ -22778,7 +22772,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="56" t="s">
         <v>566</v>
       </c>
@@ -22818,7 +22812,7 @@
       </c>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="56" t="s">
         <v>566</v>
       </c>
@@ -22858,7 +22852,7 @@
       </c>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="56" t="s">
         <v>566</v>
       </c>
@@ -22898,7 +22892,7 @@
       </c>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="56" t="s">
         <v>566</v>
       </c>
@@ -22938,7 +22932,7 @@
       </c>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>566</v>
       </c>
@@ -22978,7 +22972,7 @@
       </c>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="168"/>
     </row>
   </sheetData>
@@ -23005,23 +22999,23 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
@@ -23068,7 +23062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -23114,7 +23108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -23160,7 +23154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -23202,7 +23196,7 @@
       <c r="N4" s="24"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -23244,7 +23238,7 @@
       <c r="N5" s="24"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -23286,7 +23280,7 @@
       <c r="N6" s="24"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -23328,7 +23322,7 @@
       <c r="N7" s="24"/>
       <c r="O7" s="26"/>
     </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -23372,7 +23366,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -23414,7 +23408,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -23458,7 +23452,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -23502,7 +23496,7 @@
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -23546,7 +23540,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="26"/>
     </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -23592,7 +23586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -23636,7 +23630,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -23680,7 +23674,7 @@
       <c r="N15" s="24"/>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -23724,7 +23718,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -23768,7 +23762,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -23810,7 +23804,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -23852,7 +23846,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -23894,7 +23888,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -23936,7 +23930,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -23978,7 +23972,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -24022,7 +24016,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -24066,7 +24060,7 @@
       <c r="N24" s="24"/>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -24110,7 +24104,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -24155,7 +24149,7 @@
       <c r="N26" s="24"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -24199,7 +24193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -24244,7 +24238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -24289,7 +24283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -24335,7 +24329,7 @@
       </c>
       <c r="P30" s="30"/>
     </row>
-    <row r="31" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -24380,7 +24374,7 @@
       </c>
       <c r="P31" s="30"/>
     </row>
-    <row r="32" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -24423,7 +24417,7 @@
       <c r="O32" s="27"/>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -24468,7 +24462,7 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -24513,7 +24507,7 @@
       </c>
       <c r="P34" s="30"/>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -24558,7 +24552,7 @@
       </c>
       <c r="P35" s="30"/>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -24603,7 +24597,7 @@
       </c>
       <c r="P36" s="30"/>
     </row>
-    <row r="37" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -24646,7 +24640,7 @@
       <c r="O37" s="27"/>
       <c r="P37" s="30"/>
     </row>
-    <row r="38" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -24688,7 +24682,7 @@
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
     </row>
-    <row r="39" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -24732,7 +24726,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>39</v>
       </c>
@@ -24774,7 +24768,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
     </row>
-    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>40</v>
       </c>
@@ -24818,7 +24812,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -24862,7 +24856,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="201" t="s">
         <v>92</v>
       </c>
@@ -24912,25 +24906,25 @@
       <selection activeCell="A2" sqref="A2:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="17" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24973,7 +24967,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -25012,7 +25006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -25051,7 +25045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -25090,7 +25084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -25129,7 +25123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -25168,7 +25162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="42" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -25207,7 +25201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -25248,7 +25242,7 @@
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
     </row>
-    <row r="9" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -25289,7 +25283,7 @@
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
     </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -25330,7 +25324,7 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
     </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -25371,7 +25365,7 @@
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
     </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -25412,7 +25406,7 @@
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
     </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
@@ -25453,7 +25447,7 @@
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
@@ -25494,7 +25488,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>32</v>
       </c>
@@ -25535,7 +25529,7 @@
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
     </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>32</v>
       </c>
@@ -25576,7 +25570,7 @@
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -25617,7 +25611,7 @@
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
@@ -25658,7 +25652,7 @@
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
@@ -25699,7 +25693,7 @@
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
@@ -25740,7 +25734,7 @@
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>38</v>
       </c>
@@ -25781,7 +25775,7 @@
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
     </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
@@ -25822,7 +25816,7 @@
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
@@ -25863,7 +25857,7 @@
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
@@ -25904,7 +25898,7 @@
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
     </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>51</v>
       </c>
@@ -25945,7 +25939,7 @@
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
     </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>51</v>
       </c>
@@ -25986,7 +25980,7 @@
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
     </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>51</v>
       </c>
@@ -26027,7 +26021,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>61</v>
       </c>
@@ -26068,7 +26062,7 @@
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
     </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>61</v>
       </c>
@@ -26109,7 +26103,7 @@
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>61</v>
       </c>
@@ -26150,7 +26144,7 @@
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
     </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>61</v>
       </c>
@@ -26191,7 +26185,7 @@
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
     </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>61</v>
       </c>
@@ -26232,7 +26226,7 @@
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
     </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>61</v>
       </c>
@@ -26273,7 +26267,7 @@
       <c r="N33" s="42"/>
       <c r="O33" s="42"/>
     </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>61</v>
       </c>
@@ -26314,7 +26308,7 @@
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
     </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>61</v>
       </c>
@@ -26355,7 +26349,7 @@
       <c r="N35" s="42"/>
       <c r="O35" s="42"/>
     </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>61</v>
       </c>
@@ -26396,7 +26390,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>72</v>
       </c>
@@ -26437,7 +26431,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>72</v>
       </c>
@@ -26478,7 +26472,7 @@
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
     </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>571</v>
       </c>
@@ -26519,7 +26513,7 @@
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
     </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>571</v>
       </c>
@@ -26560,7 +26554,7 @@
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
     </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>571</v>
       </c>
@@ -26601,7 +26595,7 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
     </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>571</v>
       </c>
@@ -26642,7 +26636,7 @@
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
     </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>571</v>
       </c>
@@ -26683,7 +26677,7 @@
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>571</v>
       </c>
@@ -26724,7 +26718,7 @@
       <c r="N44" s="42"/>
       <c r="O44" s="42"/>
     </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>571</v>
       </c>
@@ -26765,7 +26759,7 @@
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
     </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>571</v>
       </c>
@@ -26806,7 +26800,7 @@
       <c r="N46" s="42"/>
       <c r="O46" s="42"/>
     </row>
-    <row r="47" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>571</v>
       </c>
@@ -26847,7 +26841,7 @@
       <c r="N47" s="42"/>
       <c r="O47" s="42"/>
     </row>
-    <row r="48" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>571</v>
       </c>
@@ -26905,24 +26899,24 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26964,7 +26958,7 @@
       </c>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>313</v>
       </c>
@@ -27004,7 +26998,7 @@
       </c>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>313</v>
       </c>
@@ -27044,7 +27038,7 @@
       </c>
       <c r="N3" s="42"/>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>313</v>
       </c>
@@ -27084,7 +27078,7 @@
       </c>
       <c r="N4" s="42"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>313</v>
       </c>
@@ -27124,7 +27118,7 @@
       </c>
       <c r="N5" s="42"/>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>313</v>
       </c>
@@ -27164,7 +27158,7 @@
       </c>
       <c r="N6" s="42"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>313</v>
       </c>
@@ -27204,7 +27198,7 @@
       </c>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>313</v>
       </c>
@@ -27244,7 +27238,7 @@
       </c>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>313</v>
       </c>
@@ -27284,7 +27278,7 @@
       </c>
       <c r="N9" s="42"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>313</v>
       </c>
@@ -27324,7 +27318,7 @@
       </c>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>313</v>
       </c>
@@ -27364,7 +27358,7 @@
       </c>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>313</v>
       </c>
@@ -27404,7 +27398,7 @@
       </c>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>313</v>
       </c>
@@ -27444,7 +27438,7 @@
       </c>
       <c r="N13" s="42"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>313</v>
       </c>
@@ -27482,7 +27476,7 @@
       </c>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>311</v>
       </c>
@@ -27522,7 +27516,7 @@
       </c>
       <c r="N15" s="42"/>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>309</v>
       </c>
@@ -27562,7 +27556,7 @@
       </c>
       <c r="N16" s="42"/>
     </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>309</v>
       </c>
@@ -27602,7 +27596,7 @@
       </c>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>309</v>
       </c>
@@ -27642,7 +27636,7 @@
       </c>
       <c r="N18" s="42"/>
     </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>309</v>
       </c>
@@ -27682,7 +27676,7 @@
       </c>
       <c r="N19" s="42"/>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>309</v>
       </c>
@@ -27722,7 +27716,7 @@
       </c>
       <c r="N20" s="42"/>
     </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>309</v>
       </c>
@@ -27762,7 +27756,7 @@
       </c>
       <c r="N21" s="42"/>
     </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>309</v>
       </c>
@@ -27802,7 +27796,7 @@
       </c>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>309</v>
       </c>
@@ -27842,7 +27836,7 @@
       </c>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>307</v>
       </c>
@@ -27882,7 +27876,7 @@
       </c>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>305</v>
       </c>
@@ -27922,7 +27916,7 @@
       </c>
       <c r="N25" s="42"/>
     </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>305</v>
       </c>
@@ -27962,7 +27956,7 @@
       </c>
       <c r="N26" s="42"/>
     </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>305</v>
       </c>
@@ -28002,7 +27996,7 @@
       </c>
       <c r="N27" s="42"/>
     </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>305</v>
       </c>
@@ -28042,7 +28036,7 @@
       </c>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>305</v>
       </c>
@@ -28082,7 +28076,7 @@
       </c>
       <c r="N29" s="42"/>
     </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>305</v>
       </c>
@@ -28122,7 +28116,7 @@
       </c>
       <c r="N30" s="42"/>
     </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>219</v>
       </c>
@@ -28162,7 +28156,7 @@
       </c>
       <c r="N31" s="42"/>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>219</v>
       </c>
@@ -28202,7 +28196,7 @@
       </c>
       <c r="N32" s="42"/>
     </row>
-    <row r="33" spans="1:14" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>219</v>
       </c>
@@ -28242,7 +28236,7 @@
       </c>
       <c r="N33" s="42"/>
     </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>219</v>
       </c>
@@ -28282,7 +28276,7 @@
       </c>
       <c r="N34" s="42"/>
     </row>
-    <row r="35" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>219</v>
       </c>
@@ -28322,7 +28316,7 @@
       </c>
       <c r="N35" s="42"/>
     </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>219</v>
       </c>
@@ -28362,7 +28356,7 @@
       </c>
       <c r="N36" s="42"/>
     </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>219</v>
       </c>
@@ -28402,7 +28396,7 @@
       </c>
       <c r="N37" s="42"/>
     </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>219</v>
       </c>
@@ -28442,7 +28436,7 @@
       </c>
       <c r="N38" s="42"/>
     </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>219</v>
       </c>
@@ -28482,7 +28476,7 @@
       </c>
       <c r="N39" s="42"/>
     </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>219</v>
       </c>
@@ -28522,7 +28516,7 @@
       </c>
       <c r="N40" s="42"/>
     </row>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>219</v>
       </c>
@@ -28562,7 +28556,7 @@
       </c>
       <c r="N41" s="42"/>
     </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>219</v>
       </c>
@@ -28602,7 +28596,7 @@
       </c>
       <c r="N42" s="42"/>
     </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>219</v>
       </c>
@@ -28642,7 +28636,7 @@
       </c>
       <c r="N43" s="42"/>
     </row>
-    <row r="44" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>219</v>
       </c>
@@ -28682,7 +28676,7 @@
       </c>
       <c r="N44" s="42"/>
     </row>
-    <row r="45" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>219</v>
       </c>
@@ -28722,7 +28716,7 @@
       </c>
       <c r="N45" s="42"/>
     </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>219</v>
       </c>
@@ -28762,7 +28756,7 @@
       </c>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>219</v>
       </c>
@@ -28802,7 +28796,7 @@
       </c>
       <c r="N47" s="42"/>
     </row>
-    <row r="48" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>219</v>
       </c>
@@ -28842,17 +28836,17 @@
       </c>
       <c r="N48" s="42"/>
     </row>
-    <row r="49" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="23"/>
     </row>
-    <row r="51" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="23"/>
     </row>
-    <row r="52" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="23"/>
     </row>
   </sheetData>
@@ -28872,14 +28866,14 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="150" t="s">
         <v>531</v>
       </c>
@@ -28890,7 +28884,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="150">
         <v>1</v>
       </c>
@@ -28901,7 +28895,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="150">
         <v>2</v>
       </c>
@@ -28912,7 +28906,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="150">
         <v>3</v>
       </c>
@@ -28923,7 +28917,7 @@
         <v>625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="150">
         <v>4</v>
       </c>
@@ -28934,7 +28928,7 @@
         <v>714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="150">
         <v>5</v>
       </c>
@@ -28945,7 +28939,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="150">
         <v>6</v>
       </c>
@@ -28956,7 +28950,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>7</v>
       </c>
@@ -28967,7 +28961,7 @@
         <v>565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="150">
         <v>8</v>
       </c>
@@ -28978,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>9</v>
       </c>
@@ -28989,7 +28983,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>10</v>
       </c>
@@ -29000,7 +28994,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>11</v>
       </c>
@@ -29011,7 +29005,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="150">
         <v>12</v>
       </c>
@@ -29022,7 +29016,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>13</v>
       </c>
@@ -29033,7 +29027,7 @@
         <v>647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>14</v>
       </c>
@@ -29044,7 +29038,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>15</v>
       </c>
@@ -29055,7 +29049,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>16</v>
       </c>
@@ -29066,7 +29060,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>17</v>
       </c>
@@ -29077,7 +29071,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="150">
         <v>18</v>
       </c>
@@ -29088,7 +29082,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>19</v>
       </c>
@@ -29099,7 +29093,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="150">
         <v>20</v>
       </c>
@@ -29110,7 +29104,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="150">
         <v>21</v>
       </c>
@@ -29121,7 +29115,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>22</v>
       </c>
@@ -29132,7 +29126,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="150">
         <v>23</v>
       </c>
@@ -29143,7 +29137,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>24</v>
       </c>
@@ -29154,7 +29148,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>25</v>
       </c>
@@ -29165,7 +29159,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="150">
         <v>26</v>
       </c>
@@ -29176,7 +29170,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>27</v>
       </c>
@@ -29187,7 +29181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="150">
         <v>28</v>
       </c>
@@ -29198,7 +29192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="150">
         <v>29</v>
       </c>
@@ -29209,7 +29203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="150">
         <v>30</v>
       </c>
@@ -29220,7 +29214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="150">
         <v>31</v>
       </c>
@@ -29231,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="150">
         <v>32</v>
       </c>
@@ -29242,7 +29236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="150">
         <v>33</v>
       </c>
@@ -29253,7 +29247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="150">
         <v>34</v>
       </c>
@@ -29264,7 +29258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="150">
         <v>35</v>
       </c>
@@ -29275,7 +29269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="150">
         <v>36</v>
       </c>
@@ -29286,7 +29280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="150">
         <v>37</v>
       </c>
@@ -29297,7 +29291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="150">
         <v>38</v>
       </c>
@@ -29308,7 +29302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="169">
         <v>39</v>
       </c>
@@ -29319,7 +29313,7 @@
         <v>817.97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="150">
         <v>40</v>
       </c>
@@ -29330,7 +29324,7 @@
         <v>475.85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="169">
         <v>41</v>
       </c>
@@ -29341,7 +29335,7 @@
         <v>712.73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="150">
         <v>42</v>
       </c>
@@ -29352,7 +29346,7 @@
         <v>844.17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="169">
         <v>43</v>
       </c>
@@ -29363,7 +29357,7 @@
         <v>635.34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="150">
         <v>44</v>
       </c>
@@ -29374,7 +29368,7 @@
         <v>375.82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="169">
         <v>45</v>
       </c>
@@ -29385,7 +29379,7 @@
         <v>567.71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="150">
         <v>46</v>
       </c>
@@ -29396,7 +29390,7 @@
         <v>134.16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44">
         <v>47</v>
       </c>
@@ -29407,7 +29401,7 @@
         <v>913.55</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="150">
         <v>48</v>
       </c>
@@ -29418,7 +29412,7 @@
         <v>926.3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="44">
         <v>49</v>
       </c>
@@ -29429,7 +29423,7 @@
         <v>511.73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="150">
         <v>50</v>
       </c>
@@ -29440,7 +29434,7 @@
         <v>1521.41</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="44">
         <v>51</v>
       </c>
@@ -29451,7 +29445,7 @@
         <v>1061.82</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="150">
         <v>52</v>
       </c>
@@ -29462,7 +29456,7 @@
         <v>1268.067</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="44">
         <v>53</v>
       </c>
@@ -29473,7 +29467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="150">
         <v>54</v>
       </c>
@@ -29484,7 +29478,7 @@
         <v>938.27</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="44">
         <v>55</v>
       </c>
@@ -29495,7 +29489,7 @@
         <v>1079.52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A57" s="44">
         <v>57</v>
       </c>
@@ -29506,7 +29500,7 @@
         <v>655.94</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="150">
         <v>58</v>
       </c>
@@ -29517,7 +29511,7 @@
         <v>307.8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="44">
         <v>59</v>
       </c>
@@ -29528,7 +29522,7 @@
         <v>1094.31</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="150">
         <v>60</v>
       </c>
@@ -29553,26 +29547,26 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="125" customWidth="1"/>
     <col min="7" max="7" width="16" style="125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="128" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="125" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="128" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="125" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="128" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="125" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="128" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>78</v>
       </c>
@@ -29619,7 +29613,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="113">
         <v>1</v>
       </c>
@@ -29663,7 +29657,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="113">
         <v>2</v>
       </c>
@@ -29707,7 +29701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>5</v>
       </c>
@@ -29749,7 +29743,7 @@
       <c r="N4" s="33"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>6</v>
       </c>
@@ -29791,7 +29785,7 @@
       <c r="N5" s="33"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>7</v>
       </c>
@@ -29833,7 +29827,7 @@
       <c r="N6" s="33"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>8</v>
       </c>
@@ -29875,7 +29869,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="113">
         <v>12</v>
       </c>
@@ -29919,7 +29913,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="113">
         <v>3</v>
       </c>
@@ -29961,7 +29955,7 @@
       <c r="N9" s="113"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="113">
         <v>4</v>
       </c>
@@ -30003,7 +29997,7 @@
       <c r="N10" s="113"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -30045,7 +30039,7 @@
       <c r="N11" s="113"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -30087,7 +30081,7 @@
       <c r="N12" s="113"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -30129,7 +30123,7 @@
       <c r="N13" s="113"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="29" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="112">
         <v>14</v>
       </c>
@@ -30171,7 +30165,7 @@
       <c r="N14" s="112"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>15</v>
       </c>
@@ -30215,7 +30209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>13</v>
       </c>
@@ -30257,7 +30251,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="112">
         <v>19</v>
       </c>
@@ -30299,7 +30293,7 @@
       <c r="N17" s="112"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="112">
         <v>20</v>
       </c>
@@ -30341,7 +30335,7 @@
       <c r="N18" s="112"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="112">
         <v>24</v>
       </c>
@@ -30385,7 +30379,7 @@
       <c r="N19" s="112"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="112">
         <v>25</v>
       </c>
@@ -30430,7 +30424,7 @@
       <c r="N20" s="112"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>23</v>
       </c>
@@ -30474,7 +30468,7 @@
       <c r="N21" s="113"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>16</v>
       </c>
@@ -30518,7 +30512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>17</v>
       </c>
@@ -30560,7 +30554,7 @@
       <c r="N23" s="113"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>18</v>
       </c>
@@ -30602,7 +30596,7 @@
       <c r="N24" s="113"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>21</v>
       </c>
@@ -30644,7 +30638,7 @@
       <c r="N25" s="113"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>22</v>
       </c>
@@ -30688,7 +30682,7 @@
       <c r="N26" s="24"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>27</v>
       </c>
@@ -30733,7 +30727,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>28</v>
       </c>
@@ -30778,7 +30772,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>29</v>
       </c>
@@ -30823,7 +30817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>30</v>
       </c>
@@ -30868,7 +30862,7 @@
       </c>
       <c r="P30" s="30"/>
     </row>
-    <row r="31" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>26</v>
       </c>
@@ -30913,7 +30907,7 @@
       </c>
       <c r="P31" s="30"/>
     </row>
-    <row r="32" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="112">
         <v>31</v>
       </c>
@@ -30956,7 +30950,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>36</v>
       </c>
@@ -30999,7 +30993,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>37</v>
       </c>
@@ -31042,7 +31036,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="30"/>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>39</v>
       </c>
@@ -31085,7 +31079,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="30"/>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>32</v>
       </c>
@@ -31130,7 +31124,7 @@
       </c>
       <c r="P36" s="30"/>
     </row>
-    <row r="37" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="29" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>33</v>
       </c>
@@ -31175,7 +31169,7 @@
       </c>
       <c r="P37" s="30"/>
     </row>
-    <row r="38" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>34</v>
       </c>
@@ -31219,7 +31213,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>35</v>
       </c>
@@ -31263,7 +31257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>38</v>
       </c>
@@ -31307,7 +31301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="112">
         <v>40</v>
       </c>
@@ -31351,7 +31345,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112">
         <v>41</v>
       </c>
@@ -31395,7 +31389,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="204" t="s">
         <v>113</v>
       </c>
@@ -31432,7 +31426,7 @@
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
     </row>
-    <row r="44" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="30"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -31447,7 +31441,7 @@
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
     </row>
-    <row r="45" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="30"/>
       <c r="D45" s="129"/>
       <c r="E45" s="114"/>
@@ -31474,7 +31468,7 @@
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
     </row>
-    <row r="46" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="30"/>
       <c r="D46" s="129"/>
       <c r="E46" s="114" t="s">
@@ -31509,7 +31503,7 @@
       <c r="N46" s="26"/>
       <c r="O46" s="26"/>
     </row>
-    <row r="47" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="30"/>
       <c r="D47" s="129"/>
       <c r="E47" s="114" t="s">
@@ -31544,7 +31538,7 @@
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
     </row>
-    <row r="48" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="30"/>
       <c r="D48" s="129"/>
       <c r="E48" s="114" t="s">
@@ -31579,7 +31573,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="130"/>
       <c r="E49" s="114" t="s">
         <v>40</v>
@@ -31613,7 +31607,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
     </row>
-    <row r="50" spans="4:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="130"/>
       <c r="E50" s="114" t="s">
         <v>53</v>
@@ -31647,7 +31641,7 @@
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
     </row>
-    <row r="51" spans="4:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="130"/>
       <c r="E51" s="114" t="s">
         <v>63</v>
@@ -31681,7 +31675,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="114" t="s">
         <v>74</v>
       </c>
@@ -31714,7 +31708,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="114" t="s">
         <v>92</v>
       </c>

--- a/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Projecttion_input.xlsx
@@ -15376,7 +15376,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
